--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533480.4791816939</v>
+        <v>532860.297953463</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16738903.56489389</v>
+        <v>16738903.56489388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>636466.5774402578</v>
+        <v>636466.5774402553</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7885943.776318231</v>
+        <v>7885943.776318232</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -670,13 +670,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>286.8761958304263</v>
       </c>
       <c r="W2" t="n">
-        <v>30.5520285408729</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>67.45240452679985</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>342.8793557357249</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>29.74512849779557</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>148.8597651552996</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>376.7793922922138</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>320.2617677428115</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>197.4326478843047</v>
+        <v>265.742187225273</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1387,7 +1387,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H11" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
         <v>256.6292234284552</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>15.03013622263181</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
         <v>157.5652879271376</v>
@@ -1584,7 +1584,7 @@
         <v>243.400138899798</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8302265763984</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1612,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>406.8395810201445</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3731502167427</v>
+        <v>25.79651083592735</v>
       </c>
       <c r="H14" t="n">
         <v>286.1292424873029</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.819703146337</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292977</v>
       </c>
       <c r="T16" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8302265763984</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1849,13 +1849,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773009</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G17" t="n">
         <v>397.3731502167427</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>1.759329748161758</v>
       </c>
       <c r="T19" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U19" t="n">
-        <v>140.8302265763979</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3731502167436</v>
+        <v>397.3731502167428</v>
       </c>
       <c r="H20" t="n">
         <v>286.1292424873029</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>78.67134719963336</v>
       </c>
       <c r="H22" t="n">
         <v>138.4604679489429</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
-        <v>40.05780385989043</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2496,7 +2496,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I25" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>19.07002797512331</v>
+        <v>127.6867765837843</v>
       </c>
       <c r="U25" t="n">
         <v>275.6484088706061</v>
@@ -2611,13 +2611,13 @@
         <v>217.819703146337</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6292234284557</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2733,7 +2733,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.30607383069858</v>
       </c>
       <c r="T28" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U28" t="n">
-        <v>159.9350465545924</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2970,7 +2970,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.400138899798</v>
+        <v>40.05780385989043</v>
       </c>
       <c r="U31" t="n">
-        <v>159.9350465545933</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T34" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U34" t="n">
-        <v>140.8302265763993</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T37" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
-        <v>140.8302265763979</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>121.2203321320574</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>48.2171989800586</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H40" t="n">
         <v>138.4604679489429</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
         <v>243.400138899798</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>229.3542893536022</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T41" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284552</v>
+        <v>20.30082322435227</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,10 +3915,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>22.74710563292948</v>
       </c>
       <c r="I43" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>40.05780385989043</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U43" t="n">
         <v>275.6484088706061</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>62.18440870759301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6292234284552</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>122.6623803614092</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>128.0998919181488</v>
       </c>
       <c r="G46" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
         <v>157.5652879271376</v>
@@ -4191,7 +4191,7 @@
         <v>243.400138899798</v>
       </c>
       <c r="U46" t="n">
-        <v>140.8302265763984</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.472033935714</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C2" t="n">
-        <v>947.3295611191371</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187678</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W2" t="n">
-        <v>2639.200191541658</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X2" t="n">
-        <v>2220.057728120968</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.771604420622</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0611657539532</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2442.685715783162</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2164.252715036267</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1877.297206906698</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1415.517618276921</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C5" t="n">
-        <v>977.3751454603448</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D5" t="n">
-        <v>541.4653606347892</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E5" t="n">
-        <v>107.6906157930844</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>83.8635902426962</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
         <v>53.81800590148855</v>
@@ -4567,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.817188761829</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>394.9608689238808</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2519.697427284661</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2273.817980863116</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1995.384980116221</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1708.429471986652</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1331.865744460759</v>
+        <v>574.7486531912377</v>
       </c>
       <c r="C8" t="n">
-        <v>893.7232716441822</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>457.8134868186267</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,7 +4807,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
         <v>1149.495958523325</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2181.553498026298</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1762.411034605609</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1758.165314945667</v>
+        <v>597.0078196357415</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2280.2672285452</v>
+        <v>2060.247326377186</v>
       </c>
       <c r="C11" t="n">
-        <v>2080.840311490347</v>
+        <v>1791.820874634486</v>
       </c>
       <c r="D11" t="n">
-        <v>1644.930526664792</v>
+        <v>1355.91108980893</v>
       </c>
       <c r="E11" t="n">
-        <v>1211.155781823087</v>
+        <v>922.1363449672253</v>
       </c>
       <c r="F11" t="n">
-        <v>783.2883522322945</v>
+        <v>494.2689153764331</v>
       </c>
       <c r="G11" t="n">
-        <v>381.9013318113424</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="H11" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I11" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J11" t="n">
         <v>529.0358891963317</v>
       </c>
       <c r="K11" t="n">
-        <v>1364.734008908385</v>
+        <v>530.3837169502075</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.406108420151</v>
+        <v>1607.115782714833</v>
       </c>
       <c r="M11" t="n">
-        <v>1368.266641306074</v>
+        <v>1608.976315600756</v>
       </c>
       <c r="N11" t="n">
-        <v>2114.833569076069</v>
+        <v>2114.833569076072</v>
       </c>
       <c r="O11" t="n">
-        <v>3096.798511736631</v>
+        <v>3096.798511736635</v>
       </c>
       <c r="P11" t="n">
-        <v>3926.632078409238</v>
+        <v>3926.632078409242</v>
       </c>
       <c r="Q11" t="n">
-        <v>4474.275093483377</v>
+        <v>4474.27509348338</v>
       </c>
       <c r="R11" t="n">
-        <v>4644.094747774041</v>
+        <v>4644.094747774045</v>
       </c>
       <c r="S11" t="n">
-        <v>4560.689228612804</v>
+        <v>4560.689228612808</v>
       </c>
       <c r="T11" t="n">
-        <v>4560.689228612804</v>
+        <v>4340.66932644479</v>
       </c>
       <c r="U11" t="n">
-        <v>4301.467790806284</v>
+        <v>4081.44788863827</v>
       </c>
       <c r="V11" t="n">
-        <v>3938.85084074011</v>
+        <v>3718.830938572096</v>
       </c>
       <c r="W11" t="n">
-        <v>3533.995386151144</v>
+        <v>3313.975483983129</v>
       </c>
       <c r="X11" t="n">
-        <v>3114.852922730455</v>
+        <v>2894.83302056244</v>
       </c>
       <c r="Y11" t="n">
-        <v>2706.566799030108</v>
+        <v>2486.546896862093</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>492.5355295630334</v>
       </c>
       <c r="D12" t="n">
-        <v>397.4452407095866</v>
+        <v>397.4452407095867</v>
       </c>
       <c r="E12" t="n">
-        <v>303.3248260365403</v>
+        <v>303.3248260365404</v>
       </c>
       <c r="F12" t="n">
         <v>219.940987652702</v>
       </c>
       <c r="G12" t="n">
-        <v>134.561682290181</v>
+        <v>134.5616822901811</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I12" t="n">
         <v>119.1407598225395</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.3730826098279</v>
+        <v>785.993326873489</v>
       </c>
       <c r="C13" t="n">
         <v>770.8113710930528</v>
@@ -5184,22 +5184,22 @@
         <v>604.9333782945755</v>
       </c>
       <c r="E13" t="n">
-        <v>435.1753745453127</v>
+        <v>435.1753745453128</v>
       </c>
       <c r="F13" t="n">
-        <v>258.4683205070689</v>
+        <v>258.468320507069</v>
       </c>
       <c r="G13" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="H13" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I13" t="n">
-        <v>92.88189495548082</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J13" t="n">
-        <v>179.797611498759</v>
+        <v>179.7976114987591</v>
       </c>
       <c r="K13" t="n">
         <v>455.108268849676</v>
@@ -5223,28 +5223,28 @@
         <v>2714.253375995616</v>
       </c>
       <c r="R13" t="n">
-        <v>2714.253375995616</v>
+        <v>2693.053602374639</v>
       </c>
       <c r="S13" t="n">
-        <v>2555.096519503558</v>
+        <v>2533.896745882581</v>
       </c>
       <c r="T13" t="n">
-        <v>2309.237793342146</v>
+        <v>2288.038019721169</v>
       </c>
       <c r="U13" t="n">
-        <v>2166.985039224572</v>
+        <v>2009.605283488233</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.029531095003</v>
+        <v>1722.649775358664</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.003126681294</v>
+        <v>1450.623370944955</v>
       </c>
       <c r="X13" t="n">
-        <v>1362.611372014707</v>
+        <v>1205.231616278368</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.191701328815</v>
+        <v>977.8119455924761</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2060.247326377183</v>
+        <v>2143.652845538424</v>
       </c>
       <c r="C14" t="n">
-        <v>1622.104853560606</v>
+        <v>1705.510372721847</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.155781823087</v>
+        <v>1269.600587896291</v>
       </c>
       <c r="E14" t="n">
-        <v>1211.155781823087</v>
+        <v>835.8258430545866</v>
       </c>
       <c r="F14" t="n">
-        <v>783.2883522322945</v>
+        <v>407.9584134637943</v>
       </c>
       <c r="G14" t="n">
-        <v>381.9013318113424</v>
+        <v>381.9013318113425</v>
       </c>
       <c r="H14" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I14" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J14" t="n">
-        <v>93.78120174341377</v>
+        <v>529.0358891963317</v>
       </c>
       <c r="K14" t="n">
-        <v>95.12902949728965</v>
+        <v>1364.734008908385</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.861095261915</v>
+        <v>1366.406108420151</v>
       </c>
       <c r="M14" t="n">
-        <v>2321.27454533599</v>
+        <v>1368.266641306074</v>
       </c>
       <c r="N14" t="n">
-        <v>3448.896167025582</v>
+        <v>2114.833569076072</v>
       </c>
       <c r="O14" t="n">
-        <v>4430.861109686144</v>
+        <v>3096.798511736635</v>
       </c>
       <c r="P14" t="n">
-        <v>4473.130864367834</v>
+        <v>3926.632078409242</v>
       </c>
       <c r="Q14" t="n">
-        <v>4474.275093483378</v>
+        <v>4474.27509348338</v>
       </c>
       <c r="R14" t="n">
-        <v>4644.094747774042</v>
+        <v>4644.094747774045</v>
       </c>
       <c r="S14" t="n">
-        <v>4560.689228612805</v>
+        <v>4644.094747774045</v>
       </c>
       <c r="T14" t="n">
-        <v>4340.669326444788</v>
+        <v>4424.074845606027</v>
       </c>
       <c r="U14" t="n">
-        <v>4081.447888638267</v>
+        <v>4164.853407799507</v>
       </c>
       <c r="V14" t="n">
-        <v>3718.830938572094</v>
+        <v>3802.236457733334</v>
       </c>
       <c r="W14" t="n">
-        <v>3313.975483983127</v>
+        <v>3397.381003144367</v>
       </c>
       <c r="X14" t="n">
-        <v>2894.833020562437</v>
+        <v>2978.238539723678</v>
       </c>
       <c r="Y14" t="n">
-        <v>2486.546896862091</v>
+        <v>2569.952416023331</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>492.5355295630334</v>
       </c>
       <c r="D15" t="n">
-        <v>397.4452407095866</v>
+        <v>397.4452407095867</v>
       </c>
       <c r="E15" t="n">
-        <v>303.3248260365403</v>
+        <v>303.3248260365404</v>
       </c>
       <c r="F15" t="n">
         <v>219.940987652702</v>
       </c>
       <c r="G15" t="n">
-        <v>134.561682290181</v>
+        <v>134.5616822901811</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I15" t="n">
-        <v>93.07708666208188</v>
+        <v>119.1407598225395</v>
       </c>
       <c r="J15" t="n">
-        <v>93.61270762410646</v>
+        <v>444.2347057507764</v>
       </c>
       <c r="K15" t="n">
-        <v>94.52816916065812</v>
+        <v>1125.883687357705</v>
       </c>
       <c r="L15" t="n">
-        <v>95.7591201715224</v>
+        <v>1127.11463836857</v>
       </c>
       <c r="M15" t="n">
-        <v>1245.172570245598</v>
+        <v>1128.55110013804</v>
       </c>
       <c r="N15" t="n">
-        <v>1752.421759331332</v>
+        <v>1130.025580776223</v>
       </c>
       <c r="O15" t="n">
-        <v>1753.770621052095</v>
+        <v>1131.374442496985</v>
       </c>
       <c r="P15" t="n">
-        <v>1754.853201500757</v>
+        <v>1132.457022945647</v>
       </c>
       <c r="Q15" t="n">
-        <v>1755.576877861128</v>
+        <v>1638.404099766788</v>
       </c>
       <c r="R15" t="n">
         <v>1755.928869427834</v>
@@ -5421,19 +5421,19 @@
         <v>604.9333782945755</v>
       </c>
       <c r="E16" t="n">
-        <v>435.1753745453127</v>
+        <v>435.1753745453128</v>
       </c>
       <c r="F16" t="n">
-        <v>258.4683205070689</v>
+        <v>258.468320507069</v>
       </c>
       <c r="G16" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="H16" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I16" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J16" t="n">
         <v>179.7976114987591</v>
@@ -5463,10 +5463,10 @@
         <v>2714.253375995616</v>
       </c>
       <c r="S16" t="n">
-        <v>2555.096519503558</v>
+        <v>2691.27650161892</v>
       </c>
       <c r="T16" t="n">
-        <v>2309.237793342146</v>
+        <v>2445.417775457508</v>
       </c>
       <c r="U16" t="n">
         <v>2166.985039224572</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D17" t="n">
         <v>1654.292474785807</v>
@@ -5503,16 +5503,16 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F17" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G17" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H17" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I17" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J17" t="n">
         <v>538.3978373173468</v>
@@ -5524,43 +5524,43 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M17" t="n">
-        <v>2452.688555679948</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N17" t="n">
-        <v>2582.930975126827</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O17" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P17" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q17" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R17" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S17" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T17" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U17" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V17" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X17" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y17" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H18" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I18" t="n">
         <v>128.5027079435546</v>
@@ -5597,22 +5597,22 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5121154083432</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L18" t="n">
-        <v>455.7430664192074</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M18" t="n">
-        <v>457.1795281886778</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N18" t="n">
-        <v>458.6540088268605</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O18" t="n">
-        <v>460.0028705476232</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P18" t="n">
-        <v>1106.303432895356</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q18" t="n">
         <v>1647.766047887803</v>
@@ -5664,13 +5664,13 @@
         <v>267.8302686280841</v>
       </c>
       <c r="G19" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H19" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I19" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J19" t="n">
         <v>189.1595596197742</v>
@@ -5697,13 +5697,13 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R19" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S19" t="n">
-        <v>2564.458467624573</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T19" t="n">
-        <v>2318.599741463161</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U19" t="n">
         <v>2176.346987345587</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F20" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533098</v>
       </c>
       <c r="G20" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H20" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I20" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J20" t="n">
         <v>538.3978373173468</v>
@@ -5761,43 +5761,43 @@
         <v>2450.828022794025</v>
       </c>
       <c r="M20" t="n">
-        <v>2452.688555679948</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N20" t="n">
-        <v>2582.930975126827</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O20" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P20" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q20" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R20" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X20" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H21" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I21" t="n">
         <v>128.5027079435546</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.108203127648</v>
+        <v>1094.987784848417</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.546491610873</v>
+        <v>922.4260733316415</v>
       </c>
       <c r="D22" t="n">
-        <v>842.6684988123955</v>
+        <v>756.5480805331642</v>
       </c>
       <c r="E22" t="n">
-        <v>672.9104950631327</v>
+        <v>586.7900767839014</v>
       </c>
       <c r="F22" t="n">
-        <v>496.2034410248889</v>
+        <v>410.0830227456577</v>
       </c>
       <c r="G22" t="n">
         <v>330.6170154733007</v>
@@ -5907,7 +5907,7 @@
         <v>190.757956939015</v>
       </c>
       <c r="I22" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J22" t="n">
         <v>189.1595596197742</v>
@@ -5937,25 +5937,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S22" t="n">
-        <v>2723.615324116631</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.152895975328</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.720159742392</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.764651612823</v>
+        <v>2031.644233333592</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.738247199114</v>
+        <v>1759.617828919883</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.346492532527</v>
+        <v>1514.226074253296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1372.926821846635</v>
+        <v>1286.806403567404</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.344732427941</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.202259611364</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.292474785809</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E23" t="n">
-        <v>1220.517729944104</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F23" t="n">
-        <v>792.6503003533116</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G23" t="n">
-        <v>391.2632799323583</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H23" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I23" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J23" t="n">
         <v>538.3978373173468</v>
       </c>
       <c r="K23" t="n">
-        <v>594.4775803681266</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L23" t="n">
-        <v>1671.209646132752</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>2830.118014229226</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N23" t="n">
-        <v>3957.739635918817</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O23" t="n">
-        <v>4939.70457857938</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P23" t="n">
-        <v>4941.22827041859</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q23" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R23" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S23" t="n">
-        <v>5028.786634663562</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T23" t="n">
-        <v>4808.766732495545</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U23" t="n">
-        <v>4549.545294689025</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V23" t="n">
-        <v>4186.928344622851</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.072890033885</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X23" t="n">
-        <v>3362.930426613195</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.644302912849</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.255275123354</v>
+        <v>608.3539388474062</v>
       </c>
       <c r="C24" t="n">
-        <v>3848.798813959997</v>
+        <v>501.8974776840485</v>
       </c>
       <c r="D24" t="n">
-        <v>3753.70852510655</v>
+        <v>406.8071888306018</v>
       </c>
       <c r="E24" t="n">
-        <v>3659.588110433504</v>
+        <v>312.6867741575555</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.204272049665</v>
+        <v>229.3029357737171</v>
       </c>
       <c r="G24" t="n">
-        <v>3490.824966687144</v>
+        <v>143.9236304111961</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.145179352444</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.404044219503</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.49799014774</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K24" t="n">
-        <v>4446.631433583362</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L24" t="n">
-        <v>4447.862384594227</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M24" t="n">
-        <v>4449.298846363697</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N24" t="n">
-        <v>4450.77332700188</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O24" t="n">
-        <v>4452.122188722642</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P24" t="n">
-        <v>4453.204769171304</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4994.667384163752</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R24" t="n">
-        <v>5112.192153824798</v>
+        <v>1765.290817548849</v>
       </c>
       <c r="S24" t="n">
-        <v>5048.844158432983</v>
+        <v>1701.942822157035</v>
       </c>
       <c r="T24" t="n">
-        <v>4918.688829839112</v>
+        <v>1571.787493563164</v>
       </c>
       <c r="U24" t="n">
-        <v>4742.352663389824</v>
+        <v>1395.451327113875</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.235145451823</v>
+        <v>1196.333809175875</v>
       </c>
       <c r="W24" t="n">
-        <v>4357.912391185017</v>
+        <v>1011.011054909069</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.044955423897</v>
+        <v>856.1436191479486</v>
       </c>
       <c r="Y24" t="n">
-        <v>4076.559176203118</v>
+        <v>729.6578399271693</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3569.685032835814</v>
+        <v>1092.594089265129</v>
       </c>
       <c r="C25" t="n">
-        <v>3397.123321319038</v>
+        <v>920.0323777483537</v>
       </c>
       <c r="D25" t="n">
-        <v>3231.245328520561</v>
+        <v>754.1543849498764</v>
       </c>
       <c r="E25" t="n">
-        <v>3061.487324771299</v>
+        <v>584.3963812006136</v>
       </c>
       <c r="F25" t="n">
-        <v>2884.780270733055</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="G25" t="n">
-        <v>2719.193845181467</v>
+        <v>242.1029016107817</v>
       </c>
       <c r="H25" t="n">
-        <v>2579.334786647181</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I25" t="n">
-        <v>2490.820672784662</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J25" t="n">
-        <v>2577.73638932794</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K25" t="n">
-        <v>2853.047046678857</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L25" t="n">
-        <v>3271.963557888175</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M25" t="n">
-        <v>3732.192466738241</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N25" t="n">
-        <v>4175.178596139395</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O25" t="n">
-        <v>4595.519648872222</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P25" t="n">
-        <v>4943.601386800484</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q25" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R25" t="n">
-        <v>5090.99238020382</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S25" t="n">
-        <v>5090.99238020382</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T25" t="n">
-        <v>5071.729725683494</v>
+        <v>2594.638782112809</v>
       </c>
       <c r="U25" t="n">
-        <v>4793.296989450558</v>
+        <v>2316.206045879873</v>
       </c>
       <c r="V25" t="n">
-        <v>4506.341481320988</v>
+        <v>2029.250537750304</v>
       </c>
       <c r="W25" t="n">
-        <v>4234.31507690728</v>
+        <v>1757.224133336595</v>
       </c>
       <c r="X25" t="n">
-        <v>3988.923322240692</v>
+        <v>1511.832378670008</v>
       </c>
       <c r="Y25" t="n">
-        <v>3761.503651554801</v>
+        <v>1284.412707984116</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F26" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G26" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H26" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I26" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J26" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K26" t="n">
-        <v>938.8412695764827</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L26" t="n">
-        <v>2015.573335341108</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M26" t="n">
-        <v>2581.040336873682</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N26" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O26" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P26" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q26" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R26" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S26" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T26" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U26" t="n">
         <v>4549.545294689023</v>
@@ -6265,13 +6265,13 @@
         <v>4186.928344622849</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X26" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H27" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I27" t="n">
         <v>128.5027079435546</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.594089265129</v>
+        <v>1181.108203127648</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0323777483537</v>
+        <v>1008.546491610873</v>
       </c>
       <c r="D28" t="n">
-        <v>754.1543849498764</v>
+        <v>842.6684988123955</v>
       </c>
       <c r="E28" t="n">
-        <v>584.3963812006136</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F28" t="n">
-        <v>407.6893271623699</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1029016107817</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H28" t="n">
-        <v>102.243843076496</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I28" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J28" t="n">
         <v>189.1595596197742</v>
@@ -6411,25 +6411,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S28" t="n">
-        <v>2723.615324116631</v>
+        <v>2650.578885903804</v>
       </c>
       <c r="T28" t="n">
-        <v>2477.756597955219</v>
+        <v>2404.720159742392</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.206045879873</v>
+        <v>2404.720159742392</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.250537750304</v>
+        <v>2117.764651612823</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.224133336595</v>
+        <v>1845.738247199114</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.832378670008</v>
+        <v>1600.346492532527</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.412707984116</v>
+        <v>1372.926821846635</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G29" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H29" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I29" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J29" t="n">
         <v>538.3978373173468</v>
       </c>
       <c r="K29" t="n">
-        <v>594.4775803681265</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L29" t="n">
-        <v>1671.209646132752</v>
+        <v>1375.768056541166</v>
       </c>
       <c r="M29" t="n">
-        <v>2830.118014229226</v>
+        <v>1455.309353437234</v>
       </c>
       <c r="N29" t="n">
-        <v>3957.739635918817</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O29" t="n">
-        <v>4939.70457857938</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P29" t="n">
-        <v>4941.22827041859</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q29" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R29" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S29" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T29" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U29" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V29" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X29" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H30" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I30" t="n">
         <v>128.5027079435546</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.170918973295</v>
+        <v>1181.108203127648</v>
       </c>
       <c r="C31" t="n">
-        <v>3308.609207456519</v>
+        <v>1008.546491610873</v>
       </c>
       <c r="D31" t="n">
-        <v>3142.731214658042</v>
+        <v>842.6684988123955</v>
       </c>
       <c r="E31" t="n">
-        <v>2972.973210908779</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F31" t="n">
-        <v>2796.266156870536</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G31" t="n">
-        <v>2630.679731318948</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H31" t="n">
-        <v>2490.820672784662</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I31" t="n">
-        <v>2490.820672784662</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J31" t="n">
-        <v>2577.73638932794</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K31" t="n">
-        <v>2853.047046678857</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L31" t="n">
-        <v>3271.963557888175</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M31" t="n">
-        <v>3732.192466738241</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N31" t="n">
-        <v>4175.178596139395</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O31" t="n">
-        <v>4595.519648872222</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P31" t="n">
-        <v>4943.601386800484</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q31" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R31" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S31" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T31" t="n">
-        <v>4866.333427663386</v>
+        <v>2683.152895975328</v>
       </c>
       <c r="U31" t="n">
-        <v>4704.782875588039</v>
+        <v>2404.720159742392</v>
       </c>
       <c r="V31" t="n">
-        <v>4417.82736745847</v>
+        <v>2117.764651612823</v>
       </c>
       <c r="W31" t="n">
-        <v>4145.800963044761</v>
+        <v>1845.738247199114</v>
       </c>
       <c r="X31" t="n">
-        <v>3900.409208378173</v>
+        <v>1600.346492532527</v>
       </c>
       <c r="Y31" t="n">
-        <v>3672.989537692282</v>
+        <v>1372.926821846635</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C32" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E32" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F32" t="n">
-        <v>792.6503003533099</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G32" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H32" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I32" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J32" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K32" t="n">
-        <v>938.8412695764827</v>
+        <v>594.4775803681256</v>
       </c>
       <c r="L32" t="n">
-        <v>2015.573335341108</v>
+        <v>1671.209646132751</v>
       </c>
       <c r="M32" t="n">
-        <v>3174.481703437581</v>
+        <v>2830.118014229225</v>
       </c>
       <c r="N32" t="n">
-        <v>4302.103325127173</v>
+        <v>3957.739635918816</v>
       </c>
       <c r="O32" t="n">
-        <v>5108.858643332436</v>
+        <v>4939.704578579379</v>
       </c>
       <c r="P32" t="n">
-        <v>5110.382335171646</v>
+        <v>4941.228270418589</v>
       </c>
       <c r="Q32" t="n">
-        <v>5111.526564287191</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R32" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S32" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T32" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U32" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V32" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X32" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H33" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I33" t="n">
         <v>128.5027079435546</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3341.311860439009</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C34" t="n">
-        <v>3168.750148922234</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D34" t="n">
-        <v>3002.872156123756</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E34" t="n">
-        <v>2833.114152374494</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F34" t="n">
-        <v>2656.40709833625</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G34" t="n">
-        <v>2490.820672784662</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H34" t="n">
-        <v>2490.820672784662</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I34" t="n">
-        <v>2490.820672784662</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J34" t="n">
-        <v>2577.73638932794</v>
+        <v>189.1595596197742</v>
       </c>
       <c r="K34" t="n">
-        <v>2853.047046678857</v>
+        <v>464.4702169706911</v>
       </c>
       <c r="L34" t="n">
-        <v>3271.963557888175</v>
+        <v>883.3867281800093</v>
       </c>
       <c r="M34" t="n">
-        <v>3732.192466738241</v>
+        <v>1343.615637030075</v>
       </c>
       <c r="N34" t="n">
-        <v>4175.178596139395</v>
+        <v>1786.60176643123</v>
       </c>
       <c r="O34" t="n">
-        <v>4595.519648872222</v>
+        <v>2206.942819164056</v>
       </c>
       <c r="P34" t="n">
-        <v>4943.601386800484</v>
+        <v>2555.024557092318</v>
       </c>
       <c r="Q34" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="R34" t="n">
-        <v>5112.192153824798</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.03529733274</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.176571171328</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U34" t="n">
-        <v>4564.923817053753</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V34" t="n">
-        <v>4277.968308924183</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W34" t="n">
-        <v>4005.941904510475</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X34" t="n">
-        <v>3760.550149843888</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y34" t="n">
-        <v>3533.130479157996</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E35" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F35" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G35" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H35" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I35" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J35" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K35" t="n">
-        <v>938.8412695764827</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>2015.573335341108</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M35" t="n">
-        <v>2170.962204148885</v>
+        <v>2581.040336873681</v>
       </c>
       <c r="N35" t="n">
-        <v>3298.583825838477</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O35" t="n">
-        <v>4280.548768499039</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P35" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q35" t="n">
-        <v>5111.526564287191</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R35" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S35" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T35" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U35" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V35" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H36" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I36" t="n">
         <v>128.5027079435546</v>
@@ -7086,13 +7086,13 @@
         <v>267.8302686280841</v>
       </c>
       <c r="G37" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H37" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I37" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J37" t="n">
         <v>189.1595596197742</v>
@@ -7122,10 +7122,10 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S37" t="n">
-        <v>2564.458467624573</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T37" t="n">
-        <v>2318.599741463161</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U37" t="n">
         <v>2176.346987345587</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C38" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E38" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944101</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533094</v>
       </c>
       <c r="G38" t="n">
         <v>391.2632799323574</v>
       </c>
       <c r="H38" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I38" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J38" t="n">
         <v>103.1431498644289</v>
@@ -7189,37 +7189,37 @@
         <v>4302.103325127173</v>
       </c>
       <c r="O38" t="n">
-        <v>5108.858643332436</v>
+        <v>5108.858643332435</v>
       </c>
       <c r="P38" t="n">
         <v>5110.382335171646</v>
       </c>
       <c r="Q38" t="n">
-        <v>5111.526564287191</v>
+        <v>5111.52656428719</v>
       </c>
       <c r="R38" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S38" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U38" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V38" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X38" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I39" t="n">
         <v>128.5027079435546</v>
@@ -7256,19 +7256,19 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K39" t="n">
-        <v>454.5121154083432</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L39" t="n">
-        <v>455.7430664192074</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M39" t="n">
-        <v>457.1795281886778</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N39" t="n">
-        <v>458.6540088268605</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0028705476232</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P39" t="n">
         <v>1106.303432895356</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>975.7119051075392</v>
+        <v>795.3552749945038</v>
       </c>
       <c r="C40" t="n">
-        <v>803.1501935907642</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="D40" t="n">
-        <v>637.2722007922869</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="E40" t="n">
-        <v>467.5141970430241</v>
+        <v>672.9104950631327</v>
       </c>
       <c r="F40" t="n">
-        <v>290.8071430047803</v>
+        <v>496.2034410248889</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1029016107817</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H40" t="n">
-        <v>102.243843076496</v>
+        <v>190.757956939015</v>
       </c>
       <c r="I40" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J40" t="n">
         <v>189.1595596197742</v>
@@ -7356,28 +7356,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S40" t="n">
-        <v>2723.615324116631</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T40" t="n">
-        <v>2477.756597955219</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U40" t="n">
-        <v>2199.323861722284</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="V40" t="n">
-        <v>1912.368353592714</v>
+        <v>1732.011723479679</v>
       </c>
       <c r="W40" t="n">
-        <v>1640.341949179006</v>
+        <v>1459.98531906597</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.950194512418</v>
+        <v>1214.593564399383</v>
       </c>
       <c r="Y40" t="n">
-        <v>1167.530523826526</v>
+        <v>987.173893713491</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2060.247326377183</v>
+        <v>2518.982784306924</v>
       </c>
       <c r="C41" t="n">
-        <v>1622.104853560606</v>
+        <v>2080.840311490347</v>
       </c>
       <c r="D41" t="n">
-        <v>1186.195068735051</v>
+        <v>1644.930526664792</v>
       </c>
       <c r="E41" t="n">
-        <v>752.420323893346</v>
+        <v>1211.155781823087</v>
       </c>
       <c r="F41" t="n">
-        <v>324.5528943025537</v>
+        <v>783.2883522322946</v>
       </c>
       <c r="G41" t="n">
-        <v>92.88189495548085</v>
+        <v>381.9013318113425</v>
       </c>
       <c r="H41" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I41" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J41" t="n">
         <v>529.0358891963317</v>
       </c>
       <c r="K41" t="n">
-        <v>530.3837169502075</v>
+        <v>1364.734008908385</v>
       </c>
       <c r="L41" t="n">
-        <v>1607.115782714833</v>
+        <v>2441.466074673011</v>
       </c>
       <c r="M41" t="n">
-        <v>1608.976315600756</v>
+        <v>2443.326607558934</v>
       </c>
       <c r="N41" t="n">
-        <v>2114.83356907607</v>
+        <v>2445.217245812079</v>
       </c>
       <c r="O41" t="n">
-        <v>3096.798511736632</v>
+        <v>3265.952576489691</v>
       </c>
       <c r="P41" t="n">
-        <v>3926.632078409239</v>
+        <v>4095.786143162298</v>
       </c>
       <c r="Q41" t="n">
-        <v>4474.275093483378</v>
+        <v>4643.429158236437</v>
       </c>
       <c r="R41" t="n">
-        <v>4644.094747774042</v>
+        <v>4644.094747774045</v>
       </c>
       <c r="S41" t="n">
-        <v>4560.689228612805</v>
+        <v>4560.689228612808</v>
       </c>
       <c r="T41" t="n">
-        <v>4340.669326444788</v>
+        <v>4560.689228612808</v>
       </c>
       <c r="U41" t="n">
-        <v>4081.447888638267</v>
+        <v>4540.183346568007</v>
       </c>
       <c r="V41" t="n">
-        <v>3718.830938572094</v>
+        <v>4177.566396501834</v>
       </c>
       <c r="W41" t="n">
-        <v>3313.975483983127</v>
+        <v>3772.710941912867</v>
       </c>
       <c r="X41" t="n">
-        <v>2894.833020562437</v>
+        <v>3353.568478492178</v>
       </c>
       <c r="Y41" t="n">
-        <v>2486.546896862091</v>
+        <v>2945.282354791831</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>492.5355295630334</v>
       </c>
       <c r="D42" t="n">
-        <v>397.4452407095866</v>
+        <v>397.4452407095867</v>
       </c>
       <c r="E42" t="n">
-        <v>303.3248260365403</v>
+        <v>303.3248260365404</v>
       </c>
       <c r="F42" t="n">
         <v>219.940987652702</v>
       </c>
       <c r="G42" t="n">
-        <v>134.561682290181</v>
+        <v>134.5616822901811</v>
       </c>
       <c r="H42" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I42" t="n">
         <v>119.1407598225395</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3101.587626785058</v>
+        <v>966.3499569865244</v>
       </c>
       <c r="C43" t="n">
-        <v>2929.025915268283</v>
+        <v>793.7882454697493</v>
       </c>
       <c r="D43" t="n">
-        <v>2763.147922469806</v>
+        <v>627.910252671272</v>
       </c>
       <c r="E43" t="n">
-        <v>2593.389918720543</v>
+        <v>458.1522489220093</v>
       </c>
       <c r="F43" t="n">
-        <v>2416.682864682299</v>
+        <v>281.4451948837655</v>
       </c>
       <c r="G43" t="n">
-        <v>2251.096439130711</v>
+        <v>115.8587693321773</v>
       </c>
       <c r="H43" t="n">
-        <v>2111.237380596425</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.723266733906</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J43" t="n">
-        <v>2109.638983277185</v>
+        <v>179.7976114987591</v>
       </c>
       <c r="K43" t="n">
-        <v>2384.949640628101</v>
+        <v>455.108268849676</v>
       </c>
       <c r="L43" t="n">
-        <v>2803.866151837419</v>
+        <v>874.0247800589941</v>
       </c>
       <c r="M43" t="n">
-        <v>3264.095060687485</v>
+        <v>1334.25368890906</v>
       </c>
       <c r="N43" t="n">
-        <v>3707.08119008864</v>
+        <v>1777.239818310215</v>
       </c>
       <c r="O43" t="n">
-        <v>4127.422242821466</v>
+        <v>2197.580871043041</v>
       </c>
       <c r="P43" t="n">
-        <v>4475.503980749727</v>
+        <v>2545.662608971303</v>
       </c>
       <c r="Q43" t="n">
-        <v>4644.094747774042</v>
+        <v>2714.253375995616</v>
       </c>
       <c r="R43" t="n">
-        <v>4644.094747774042</v>
+        <v>2714.253375995616</v>
       </c>
       <c r="S43" t="n">
-        <v>4644.094747774042</v>
+        <v>2714.253375995616</v>
       </c>
       <c r="T43" t="n">
-        <v>4603.632319632738</v>
+        <v>2468.394649834204</v>
       </c>
       <c r="U43" t="n">
-        <v>4325.199583399803</v>
+        <v>2189.961913601269</v>
       </c>
       <c r="V43" t="n">
-        <v>4038.244075270233</v>
+        <v>1903.006405471699</v>
       </c>
       <c r="W43" t="n">
-        <v>3766.217670856524</v>
+        <v>1630.980001057991</v>
       </c>
       <c r="X43" t="n">
-        <v>3520.825916189937</v>
+        <v>1385.588246391403</v>
       </c>
       <c r="Y43" t="n">
-        <v>3293.406245504045</v>
+        <v>1158.168575705512</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2143.652845538421</v>
+        <v>2518.982784306924</v>
       </c>
       <c r="C44" t="n">
         <v>2080.840311490347</v>
@@ -7636,64 +7636,64 @@
         <v>1211.155781823087</v>
       </c>
       <c r="F44" t="n">
-        <v>783.2883522322945</v>
+        <v>783.2883522322946</v>
       </c>
       <c r="G44" t="n">
-        <v>381.9013318113424</v>
+        <v>381.9013318113425</v>
       </c>
       <c r="H44" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I44" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J44" t="n">
         <v>529.0358891963317</v>
       </c>
       <c r="K44" t="n">
-        <v>530.3837169502075</v>
+        <v>1364.734008908385</v>
       </c>
       <c r="L44" t="n">
-        <v>1607.115782714833</v>
+        <v>1366.406108420151</v>
       </c>
       <c r="M44" t="n">
-        <v>1608.976315600756</v>
+        <v>1368.266641306074</v>
       </c>
       <c r="N44" t="n">
-        <v>2114.83356907607</v>
+        <v>2495.888262995667</v>
       </c>
       <c r="O44" t="n">
-        <v>3096.798511736632</v>
+        <v>3096.798511736635</v>
       </c>
       <c r="P44" t="n">
-        <v>3926.632078409239</v>
+        <v>3926.632078409242</v>
       </c>
       <c r="Q44" t="n">
-        <v>4474.275093483378</v>
+        <v>4474.27509348338</v>
       </c>
       <c r="R44" t="n">
-        <v>4644.094747774042</v>
+        <v>4644.094747774045</v>
       </c>
       <c r="S44" t="n">
-        <v>4644.094747774042</v>
+        <v>4560.689228612808</v>
       </c>
       <c r="T44" t="n">
-        <v>4424.074845606025</v>
+        <v>4560.689228612808</v>
       </c>
       <c r="U44" t="n">
-        <v>4164.853407799505</v>
+        <v>4301.467790806288</v>
       </c>
       <c r="V44" t="n">
-        <v>3802.236457733331</v>
+        <v>4177.566396501834</v>
       </c>
       <c r="W44" t="n">
-        <v>3397.381003144365</v>
+        <v>3772.710941912867</v>
       </c>
       <c r="X44" t="n">
-        <v>2978.238539723675</v>
+        <v>3353.568478492178</v>
       </c>
       <c r="Y44" t="n">
-        <v>2569.952416023329</v>
+        <v>2945.282354791831</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         <v>492.5355295630334</v>
       </c>
       <c r="D45" t="n">
-        <v>397.4452407095866</v>
+        <v>397.4452407095867</v>
       </c>
       <c r="E45" t="n">
-        <v>303.3248260365403</v>
+        <v>303.3248260365404</v>
       </c>
       <c r="F45" t="n">
         <v>219.940987652702</v>
       </c>
       <c r="G45" t="n">
-        <v>134.561682290181</v>
+        <v>134.5616822901811</v>
       </c>
       <c r="H45" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="I45" t="n">
         <v>119.1407598225395</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>943.3730826098279</v>
+        <v>785.993326873489</v>
       </c>
       <c r="C46" t="n">
-        <v>770.8113710930528</v>
+        <v>785.993326873489</v>
       </c>
       <c r="D46" t="n">
-        <v>604.9333782945755</v>
+        <v>785.993326873489</v>
       </c>
       <c r="E46" t="n">
-        <v>435.1753745453127</v>
+        <v>616.2353231242262</v>
       </c>
       <c r="F46" t="n">
-        <v>258.4683205070689</v>
+        <v>486.8414929038738</v>
       </c>
       <c r="G46" t="n">
-        <v>92.88189495548085</v>
+        <v>321.2550673522857</v>
       </c>
       <c r="H46" t="n">
-        <v>92.88189495548085</v>
+        <v>181.3960088179999</v>
       </c>
       <c r="I46" t="n">
-        <v>92.88189495548085</v>
+        <v>92.88189495548089</v>
       </c>
       <c r="J46" t="n">
         <v>179.7976114987591</v>
@@ -7830,28 +7830,28 @@
         <v>2714.253375995616</v>
       </c>
       <c r="R46" t="n">
-        <v>2714.253375995616</v>
+        <v>2693.053602374639</v>
       </c>
       <c r="S46" t="n">
-        <v>2555.096519503558</v>
+        <v>2533.896745882581</v>
       </c>
       <c r="T46" t="n">
-        <v>2309.237793342146</v>
+        <v>2288.038019721169</v>
       </c>
       <c r="U46" t="n">
-        <v>2166.985039224572</v>
+        <v>2009.605283488233</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.029531095003</v>
+        <v>1722.649775358664</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.003126681294</v>
+        <v>1450.623370944955</v>
       </c>
       <c r="X46" t="n">
-        <v>1362.611372014707</v>
+        <v>1205.231616278368</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.191701328815</v>
+        <v>977.8119455924761</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>345.0097498941942</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>752.198272239242</v>
+        <v>509.0571870931028</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1159.144360796113</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>752.1982722392456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>41.157639234827</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.572715459197</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8835438864157</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N17" t="n">
-        <v>129.648263832054</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>651.7353352515871</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N20" t="n">
-        <v>129.648263832054</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9640,25 +9640,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>55.28476292616563</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>651.735335251587</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>569.299463279445</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10114,13 +10114,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>55.28476292616551</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>78.46541819206459</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>55.2847629261646</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>813.101052641422</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>155.0791271937921</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>813.101052641422</v>
+        <v>813.1010526414211</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>651.7353352515871</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>509.0571870931001</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>827.2222773609669</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>509.0571870931001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>605.1767400512249</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>236.3284002041062</v>
+        <v>168.0188608631379</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>155.8059581789755</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>24.71110595715544</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>371.5766393808153</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>134.8181822942079</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.8059581789759</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>134.8181822942083</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>85.25921409643887</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>203.3423350399076</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3301109246747</v>
+        <v>115.7133623160138</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
-        <v>157.5652879271376</v>
+        <v>85.25921409643905</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>115.7133623160137</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.3423350399076</v>
       </c>
       <c r="U31" t="n">
-        <v>115.7133623160129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>134.8181822942069</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>134.8181822942083</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>49.61576226954988</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>115.7133623160136</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>168.0188608631405</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>236.3284002041029</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>115.7133623160134</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T43" t="n">
-        <v>203.3423350399076</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>371.5766393808179</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>236.3284002041025</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>46.84009157971252</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>134.8181822942078</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651810.9829898349</v>
+        <v>651810.982989835</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651810.9829898349</v>
+        <v>651810.9829898353</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699838.4326220106</v>
+        <v>699838.4326220105</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699838.4326220105</v>
+        <v>699838.4326220106</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699838.4326220105</v>
+        <v>699838.4326220106</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699838.4326220106</v>
+        <v>699838.4326220105</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651810.9829898347</v>
+        <v>651810.9829898351</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651810.982989835</v>
+        <v>651810.9829898351</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>294498.9847747618</v>
+        <v>294498.9847747619</v>
       </c>
       <c r="F2" t="n">
-        <v>294498.9847747618</v>
+        <v>294498.9847747619</v>
       </c>
       <c r="G2" t="n">
-        <v>316189.098190779</v>
+        <v>316189.0981907789</v>
       </c>
       <c r="H2" t="n">
         <v>316189.0981907789</v>
@@ -26337,7 +26337,7 @@
         <v>316189.0981907789</v>
       </c>
       <c r="J2" t="n">
-        <v>316189.098190779</v>
+        <v>316189.0981907789</v>
       </c>
       <c r="K2" t="n">
         <v>316189.0981907789</v>
@@ -26352,10 +26352,10 @@
         <v>316189.0981907789</v>
       </c>
       <c r="O2" t="n">
-        <v>294498.9847747617</v>
+        <v>294498.9847747619</v>
       </c>
       <c r="P2" t="n">
-        <v>294498.9847747618</v>
+        <v>294498.9847747619</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>149489.7013598457</v>
+        <v>149489.7013598459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>32074.61938435539</v>
+        <v>32074.61938435512</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>122984.2873335662</v>
+        <v>122984.2873335664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="C4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.535266443</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>88105.66012661249</v>
+        <v>88105.66012661254</v>
       </c>
       <c r="F4" t="n">
         <v>88105.66012661252</v>
       </c>
       <c r="G4" t="n">
-        <v>94615.7186545298</v>
+        <v>94615.71865452977</v>
       </c>
       <c r="H4" t="n">
-        <v>94615.7186545298</v>
+        <v>94615.71865452977</v>
       </c>
       <c r="I4" t="n">
         <v>94615.71865452977</v>
@@ -26447,19 +26447,19 @@
         <v>94615.71865452977</v>
       </c>
       <c r="L4" t="n">
-        <v>94615.71865452979</v>
+        <v>94615.71865452977</v>
       </c>
       <c r="M4" t="n">
-        <v>94615.71865452976</v>
+        <v>94615.71865452977</v>
       </c>
       <c r="N4" t="n">
-        <v>94615.71865452979</v>
+        <v>94615.71865452977</v>
       </c>
       <c r="O4" t="n">
-        <v>88105.66012661251</v>
+        <v>88105.66012661254</v>
       </c>
       <c r="P4" t="n">
-        <v>88105.66012661251</v>
+        <v>88105.66012661255</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,40 +26478,40 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>70648.27902553795</v>
+        <v>70648.27902553801</v>
       </c>
       <c r="F5" t="n">
-        <v>70648.27902553797</v>
+        <v>70648.27902553801</v>
       </c>
       <c r="G5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="H5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="I5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="J5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="K5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="L5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="M5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="N5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="O5" t="n">
-        <v>70648.27902553797</v>
+        <v>70648.27902553801</v>
       </c>
       <c r="P5" t="n">
-        <v>70648.27902553797</v>
+        <v>70648.27902553801</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-150113.3664780006</v>
       </c>
       <c r="C6" t="n">
-        <v>73586.3321060443</v>
+        <v>73586.33210604418</v>
       </c>
       <c r="D6" t="n">
-        <v>73586.33210604428</v>
+        <v>73586.33210604418</v>
       </c>
       <c r="E6" t="n">
-        <v>-13744.65573723434</v>
+        <v>-13857.9449337324</v>
       </c>
       <c r="F6" t="n">
-        <v>135745.0456226113</v>
+        <v>135631.7564261136</v>
       </c>
       <c r="G6" t="n">
-        <v>111735.4005543843</v>
+        <v>111712.4868304535</v>
       </c>
       <c r="H6" t="n">
-        <v>143810.0199387397</v>
+        <v>143787.1062148086</v>
       </c>
       <c r="I6" t="n">
-        <v>143810.0199387396</v>
+        <v>143787.1062148086</v>
       </c>
       <c r="J6" t="n">
-        <v>-30841.32877896642</v>
+        <v>-30864.24250289754</v>
       </c>
       <c r="K6" t="n">
-        <v>143810.0199387396</v>
+        <v>143787.1062148086</v>
       </c>
       <c r="L6" t="n">
-        <v>143810.0199387396</v>
+        <v>143787.1062148086</v>
       </c>
       <c r="M6" t="n">
-        <v>20825.73260517349</v>
+        <v>20802.81888124219</v>
       </c>
       <c r="N6" t="n">
-        <v>143810.0199387397</v>
+        <v>143787.1062148086</v>
       </c>
       <c r="O6" t="n">
-        <v>135745.0456226112</v>
+        <v>135631.7564261135</v>
       </c>
       <c r="P6" t="n">
-        <v>135745.0456226114</v>
+        <v>135631.7564261135</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26798,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1161.02368694351</v>
+        <v>1161.023686943511</v>
       </c>
       <c r="F4" t="n">
-        <v>1161.02368694351</v>
+        <v>1161.023686943511</v>
       </c>
       <c r="G4" t="n">
         <v>1278.048038456199</v>
@@ -26828,10 +26828,10 @@
         <v>1278.048038456199</v>
       </c>
       <c r="O4" t="n">
-        <v>1161.02368694351</v>
+        <v>1161.023686943511</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.02368694351</v>
+        <v>1161.023686943511</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>493.5084803356534</v>
+        <v>493.5084803356542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>117.0243515126891</v>
+        <v>117.0243515126881</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>493.5084803356534</v>
+        <v>493.5084803356542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>493.5084803356534</v>
+        <v>493.5084803356542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>117.0243515126891</v>
+        <v>117.0243515126881</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>72.11458473508543</v>
       </c>
       <c r="W2" t="n">
-        <v>370.2548715022041</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.9682474305294</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>86.55764165756284</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>367.6387245651732</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>8.789189859683717</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>52.65760510107395</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>83.94149472053164</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31761,7 +31761,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K11" t="n">
         <v>1.361442175632203</v>
@@ -31770,7 +31770,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237095</v>
@@ -31785,16 +31785,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H12" t="n">
         <v>0.05530620059647288</v>
@@ -31843,7 +31843,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458851</v>
@@ -31861,19 +31861,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R12" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T12" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J13" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R13" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T13" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K14" t="n">
         <v>1.361442175632203</v>
@@ -32007,7 +32007,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N14" t="n">
         <v>1.909735609237095</v>
@@ -32022,16 +32022,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H15" t="n">
         <v>0.05530620059647288</v>
@@ -32080,7 +32080,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L15" t="n">
         <v>1.243384859458851</v>
@@ -32098,19 +32098,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R15" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T15" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J16" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R16" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T16" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,7 +32244,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237095</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H18" t="n">
         <v>0.05530620059647288</v>
@@ -32317,7 +32317,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R18" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T19" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -32481,7 +32481,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
         <v>1.909735609237095</v>
@@ -32496,16 +32496,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H21" t="n">
         <v>0.05530620059647288</v>
@@ -32554,7 +32554,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -32572,19 +32572,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R21" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T22" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K23" t="n">
         <v>1.361442175632203</v>
@@ -32718,7 +32718,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N23" t="n">
         <v>1.909735609237095</v>
@@ -32733,16 +32733,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H24" t="n">
         <v>0.05530620059647288</v>
@@ -32791,7 +32791,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458851</v>
@@ -32809,19 +32809,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R24" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T24" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J25" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R25" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T25" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
         <v>1.361442175632203</v>
@@ -32955,7 +32955,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
         <v>1.909735609237095</v>
@@ -32970,16 +32970,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
         <v>0.05530620059647288</v>
@@ -33028,7 +33028,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
         <v>1.243384859458851</v>
@@ -33046,19 +33046,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
         <v>1.361442175632203</v>
@@ -33192,7 +33192,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N29" t="n">
         <v>1.909735609237095</v>
@@ -33207,16 +33207,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H30" t="n">
         <v>0.05530620059647288</v>
@@ -33265,7 +33265,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458851</v>
@@ -33283,19 +33283,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R30" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T30" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J31" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R31" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T31" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K32" t="n">
         <v>1.361442175632203</v>
@@ -33429,7 +33429,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N32" t="n">
         <v>1.909735609237095</v>
@@ -33444,16 +33444,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H33" t="n">
         <v>0.05530620059647288</v>
@@ -33502,7 +33502,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L33" t="n">
         <v>1.243384859458851</v>
@@ -33520,19 +33520,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R33" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T33" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J34" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R34" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T34" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K35" t="n">
         <v>1.361442175632203</v>
@@ -33666,7 +33666,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N35" t="n">
         <v>1.909735609237095</v>
@@ -33681,16 +33681,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H36" t="n">
         <v>0.05530620059647288</v>
@@ -33739,7 +33739,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458851</v>
@@ -33757,19 +33757,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R36" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T36" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J37" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R37" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T37" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K38" t="n">
         <v>1.361442175632203</v>
@@ -33903,7 +33903,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N38" t="n">
         <v>1.909735609237095</v>
@@ -33918,16 +33918,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H39" t="n">
         <v>0.05530620059647288</v>
@@ -33976,7 +33976,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L39" t="n">
         <v>1.243384859458851</v>
@@ -33994,19 +33994,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R39" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T39" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J40" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R40" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T40" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
         <v>1.361442175632203</v>
@@ -34140,7 +34140,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237095</v>
@@ -34155,16 +34155,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H42" t="n">
         <v>0.05530620059647288</v>
@@ -34213,7 +34213,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
         <v>1.243384859458851</v>
@@ -34231,19 +34231,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R42" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T42" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J43" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R43" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T43" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
         <v>1.361442175632203</v>
@@ -34377,7 +34377,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
         <v>1.909735609237095</v>
@@ -34392,16 +34392,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
         <v>0.05530620059647288</v>
@@ -34450,7 +34450,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458851</v>
@@ -34468,19 +34468,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>345.0097498941942</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K11" t="n">
-        <v>844.1395148606605</v>
+        <v>1.361442175632192</v>
       </c>
       <c r="L11" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M11" t="n">
         <v>1.879326147397251</v>
       </c>
       <c r="N11" t="n">
-        <v>754.108007848479</v>
+        <v>510.9669227023398</v>
       </c>
       <c r="O11" t="n">
         <v>991.8837804652144</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J12" t="n">
-        <v>328.3777231598353</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K12" t="n">
         <v>0.9247086227794625</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K13" t="n">
         <v>278.0915730817343</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K14" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L14" t="n">
-        <v>1087.608147236995</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M14" t="n">
-        <v>1161.023686943511</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N14" t="n">
-        <v>1139.011739080396</v>
+        <v>754.1080078484827</v>
       </c>
       <c r="O14" t="n">
         <v>991.8837804652144</v>
       </c>
       <c r="P14" t="n">
-        <v>42.6967219006965</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R14" t="n">
         <v>171.535004334004</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794483</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M15" t="n">
-        <v>1161.02368694351</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N15" t="n">
-        <v>512.3729182684185</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
         <v>1.362486586628847</v>
@@ -35746,10 +35746,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225974939</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K16" t="n">
         <v>278.0915730817343</v>
@@ -35892,13 +35892,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397023</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N17" t="n">
-        <v>131.557999441291</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O17" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P17" t="n">
         <v>838.2157239117246</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J18" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794625</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M18" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N18" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P18" t="n">
-        <v>652.8288508562962</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.9319343358052</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R18" t="n">
         <v>118.7118885465111</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K19" t="n">
         <v>278.0915730817343</v>
@@ -36129,13 +36129,13 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397023</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N20" t="n">
-        <v>131.557999441291</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O20" t="n">
-        <v>991.8837804652139</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P20" t="n">
         <v>838.2157239117246</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J21" t="n">
         <v>328.3777231598353</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K22" t="n">
         <v>278.0915730817343</v>
@@ -36360,25 +36360,25 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K23" t="n">
-        <v>56.64620510179782</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L23" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.614513228762</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N23" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O23" t="n">
         <v>991.8837804652144</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R23" t="n">
         <v>171.535004334004</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.52410592632168</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J24" t="n">
-        <v>328.3777231598351</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K24" t="n">
-        <v>652.6600438743662</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L24" t="n">
-        <v>1.243384859459184</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M24" t="n">
         <v>1.450971484313413</v>
       </c>
       <c r="N24" t="n">
-        <v>1.489374382003007</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36248658662862</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P24" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.9319343358056</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R24" t="n">
-        <v>118.7118885465115</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K25" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L25" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M25" t="n">
         <v>464.8776857071371</v>
@@ -36533,10 +36533,10 @@
         <v>424.5869219523502</v>
       </c>
       <c r="P25" t="n">
-        <v>351.5977150790523</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q25" t="n">
-        <v>170.293704064964</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K26" t="n">
         <v>844.1395148606605</v>
@@ -36603,10 +36603,10 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M26" t="n">
-        <v>571.1787894268423</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N26" t="n">
-        <v>1.909735609237032</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O26" t="n">
         <v>991.8837804652144</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J27" t="n">
         <v>328.3777231598353</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K28" t="n">
         <v>278.0915730817343</v>
@@ -36834,13 +36834,13 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K29" t="n">
-        <v>56.6462051017977</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L29" t="n">
-        <v>1087.608147236995</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M29" t="n">
-        <v>1170.614513228762</v>
+        <v>80.34474433946184</v>
       </c>
       <c r="N29" t="n">
         <v>1139.011739080396</v>
@@ -36849,10 +36849,10 @@
         <v>991.8837804652144</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R29" t="n">
         <v>171.535004334004</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J30" t="n">
         <v>328.3777231598353</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K31" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L31" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M31" t="n">
         <v>464.8776857071371</v>
@@ -37007,10 +37007,10 @@
         <v>424.5869219523502</v>
       </c>
       <c r="P31" t="n">
-        <v>351.5977150790523</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q31" t="n">
-        <v>170.293704064964</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K32" t="n">
-        <v>844.1395148606605</v>
+        <v>56.6462051017968</v>
       </c>
       <c r="L32" t="n">
         <v>1087.608147236995</v>
@@ -37080,10 +37080,10 @@
         <v>1170.614513228762</v>
       </c>
       <c r="N32" t="n">
-        <v>1139.011739080395</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O32" t="n">
-        <v>814.9043618234982</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P32" t="n">
         <v>1.5390826658695</v>
@@ -37092,7 +37092,7 @@
         <v>1.155786985397754</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J33" t="n">
         <v>328.3777231598353</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K34" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L34" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M34" t="n">
         <v>464.8776857071371</v>
@@ -37244,10 +37244,10 @@
         <v>424.5869219523502</v>
       </c>
       <c r="P34" t="n">
-        <v>351.5977150790523</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.293704064964</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K35" t="n">
         <v>844.1395148606605</v>
@@ -37314,22 +37314,22 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M35" t="n">
-        <v>156.9584533411894</v>
+        <v>131.5275899794497</v>
       </c>
       <c r="N35" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O35" t="n">
         <v>991.8837804652144</v>
       </c>
       <c r="P35" t="n">
-        <v>838.215723911725</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J36" t="n">
         <v>328.3777231598353</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K37" t="n">
         <v>278.0915730817343</v>
@@ -37557,7 +37557,7 @@
         <v>1139.011739080395</v>
       </c>
       <c r="O38" t="n">
-        <v>814.9043618234982</v>
+        <v>814.9043618234973</v>
       </c>
       <c r="P38" t="n">
         <v>1.5390826658695</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J39" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L39" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M39" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N39" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628904</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P39" t="n">
-        <v>652.8288508562962</v>
+        <v>1.093515604708955</v>
       </c>
       <c r="Q39" t="n">
         <v>546.9319343358052</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37782,19 +37782,19 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632192</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L41" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397251</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N41" t="n">
-        <v>510.9669227023371</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O41" t="n">
-        <v>991.8837804652144</v>
+        <v>829.0255865430431</v>
       </c>
       <c r="P41" t="n">
         <v>838.2157239117246</v>
@@ -37803,7 +37803,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R41" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J42" t="n">
-        <v>328.3777231598353</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K42" t="n">
         <v>652.6600438743667</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401849</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K43" t="n">
-        <v>278.0915730817342</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1479911205233</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M43" t="n">
         <v>464.8776857071371</v>
@@ -37952,13 +37952,13 @@
         <v>447.4607367688432</v>
       </c>
       <c r="O43" t="n">
-        <v>424.5869219523502</v>
+        <v>424.5869219523504</v>
       </c>
       <c r="P43" t="n">
-        <v>351.5977150790513</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.293704064964</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>440.5595901422736</v>
       </c>
       <c r="K44" t="n">
-        <v>1.361442175632192</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L44" t="n">
-        <v>1087.608147236995</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M44" t="n">
         <v>1.879326147397251</v>
       </c>
       <c r="N44" t="n">
-        <v>510.9669227023371</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O44" t="n">
-        <v>991.8837804652144</v>
+        <v>606.9800492333011</v>
       </c>
       <c r="P44" t="n">
         <v>838.2157239117246</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.52410592632187</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J45" t="n">
-        <v>328.3777231598353</v>
+        <v>328.3777231598352</v>
       </c>
       <c r="K45" t="n">
         <v>652.6600438743667</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79365307401842</v>
+        <v>87.79365307401841</v>
       </c>
       <c r="K46" t="n">
         <v>278.0915730817343</v>
